--- a/biology/Histoire de la zoologie et de la botanique/Jeffries_Wyman/Jeffries_Wyman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jeffries_Wyman/Jeffries_Wyman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeffries Wyman est un  médecin, un anthropologue et un naturaliste américain, né le 11 août 1814 à Chelmsford, dans le Massachusetts et mort le 4 septembre 1874 à Bethlehem dans le New Hampshire.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’école de médecine d’Harvard et obtient son titre de docteur en 1837. C’est par les enseignements du célèbre chirurgien John Collins Warren (1778-1856) qu’il découvre l’anatomie comparée. De 1841-1842, il vient étudier l’anatomie comparée et l’histoire naturelle à Paris et à Londres où il suit les cours de Sir Richard Owen (1804-1892).
 Il devient membre de la Boston Society of Natural History en 1837 et participera activement toute sa vie à ses activités.
